--- a/huya.xlsx
+++ b/huya.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="150" yWindow="570" windowWidth="21255" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="设置" sheetId="3" r:id="rId1"/>
-    <sheet name="登录" sheetId="1" r:id="rId2"/>
+    <sheet name="登录" sheetId="1" r:id="rId1"/>
+    <sheet name="设置" sheetId="3" r:id="rId2"/>
     <sheet name="主题列表" sheetId="2" r:id="rId3"/>
     <sheet name="星秀" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -5194,10 +5194,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5220,66 +5280,6 @@
       </c>
       <c r="B2" t="s">
         <v>664</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/huya.xlsx
+++ b/huya.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="14775" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="设置" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="登录" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="主题列表" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="星秀" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="主题" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="设置" sheetId="1" r:id="rId1"/>
+    <sheet name="登录" sheetId="2" r:id="rId2"/>
+    <sheet name="主题列表" sheetId="3" r:id="rId3"/>
+    <sheet name="星秀" sheetId="4" r:id="rId4"/>
+    <sheet name="主题" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="1793">
   <si>
     <t>广告发送间隔（秒）</t>
   </si>
@@ -5403,26 +5403,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -5438,15 +5437,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -5734,21 +5734,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="19.25"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="25"/>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5760,7 +5756,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -5768,27 +5764,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="12.75"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="11.625"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5809,14 +5802,14 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>13250219510</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -5837,26 +5830,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="39.375"/>
+    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9188,24 +9178,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B600"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -14008,24 +13993,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>